--- a/out/production/avpt.gr/avpt/gr/reports/templates/RepTrainQuery.xlsx
+++ b/out/production/avpt.gr/avpt/gr/reports/templates/RepTrainQuery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\JavaProg\arm_g\src\reports\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\JavaProg\avpt.gr\src\avpt\gr\reports\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6E51E1-DC26-4A0B-8883-D07887F1474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6777927-ED8D-4952-977E-BE8EB22B3B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="550" yWindow="1260" windowWidth="23100" windowHeight="13410" tabRatio="582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="510" windowWidth="24460" windowHeight="14040" tabRatio="582" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -142,11 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -447,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,9 +462,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,15 +472,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,10 +504,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,39 +513,51 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,13 +567,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,18 +579,28 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -934,73 +948,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" style="11" customWidth="1"/>
     <col min="2" max="2" width="6" style="6" customWidth="1"/>
     <col min="3" max="3" width="6.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="15" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.1796875" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.1796875" style="8" customWidth="1"/>
+    <col min="9" max="10" width="8.1796875" style="13" customWidth="1"/>
     <col min="11" max="11" width="8.1796875" style="14" customWidth="1"/>
-    <col min="12" max="13" width="8.1796875" style="8" customWidth="1"/>
+    <col min="12" max="13" width="8.1796875" style="13" customWidth="1"/>
     <col min="14" max="15" width="7.81640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="7.81640625" style="5" customWidth="1"/>
     <col min="17" max="21" width="7.81640625" style="4" customWidth="1"/>
-    <col min="22" max="24" width="9.1796875" style="9"/>
+    <col min="22" max="24" width="9.1796875" style="8"/>
     <col min="25" max="25" width="9.1796875" style="3"/>
     <col min="26" max="26" width="9.1796875" style="4"/>
     <col min="27" max="27" width="8.54296875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="8.90625" style="10" customWidth="1"/>
-    <col min="29" max="29" width="24.26953125" style="10" customWidth="1"/>
-    <col min="30" max="30" width="24.26953125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="18.36328125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="8.90625" style="4" customWidth="1"/>
+    <col min="29" max="30" width="24.26953125" style="16" customWidth="1"/>
+    <col min="31" max="31" width="18.36328125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" style="16" customWidth="1"/>
     <col min="33" max="33" width="9.1796875" style="4"/>
     <col min="34" max="34" width="9.1796875" style="3"/>
-    <col min="35" max="35" width="11.90625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="11.90625" style="56" customWidth="1"/>
     <col min="36" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
     </row>
     <row r="2" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -1012,82 +1025,82 @@
       <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="34" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="26" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="26"/>
+      <c r="X2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="27" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AG2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AH2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="42" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1095,123 +1108,123 @@
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="22"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="26" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="49" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
       <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
     </row>
     <row r="4" spans="1:37" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="34">
